--- a/Project_2_We_Split/Raw_Data.xlsx
+++ b/Project_2_We_Split/Raw_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoa Tran\Desktop\Programming\Windows-Programming\Project_2_We_Split\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48891D42-7B03-4C50-A63D-D6080C4B52F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1157DF16-F7B6-4E84-8525-0C98EA2A57FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{29F21BD6-4D68-4946-8727-63AEB7C890A8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>TripID</t>
   </si>
@@ -51,84 +51,18 @@
     <t>Nguyễn Tuấn Khải</t>
   </si>
   <si>
-    <t>Phan Nhật Hùng</t>
-  </si>
-  <si>
     <t>Tô Việt Thắng</t>
   </si>
   <si>
-    <t>Chuyến đi thanh xuân</t>
-  </si>
-  <si>
-    <t>Visited</t>
-  </si>
-  <si>
     <t>Vũ Hoàng Lâm</t>
   </si>
   <si>
-    <t>Nguyễn Trường Giang</t>
-  </si>
-  <si>
-    <t>Chu Anh Duy</t>
-  </si>
-  <si>
-    <t>Nguyễn Nam Sơn</t>
-  </si>
-  <si>
-    <t>Lâm Thành Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Huy Khiêm</t>
-  </si>
-  <si>
-    <t>Uất Kiến Ðức</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuệ Lâm</t>
-  </si>
-  <si>
-    <t>Phạm San San</t>
-  </si>
-  <si>
-    <t>Bùi Yến Thanh</t>
-  </si>
-  <si>
     <t>Bùi Tuyết Hân</t>
   </si>
   <si>
     <t>Tô Phương Thanh</t>
   </si>
   <si>
-    <t>Uất Thúy Quỳnh</t>
-  </si>
-  <si>
-    <t>Phạm Nhã Lý</t>
-  </si>
-  <si>
-    <t>Hoàng Sơn Ca</t>
-  </si>
-  <si>
-    <t>Đặng Việt Nga</t>
-  </si>
-  <si>
-    <t>Kim Thi Yến</t>
-  </si>
-  <si>
-    <t>Phượt miền Nam</t>
-  </si>
-  <si>
-    <t>Phượt miền Bắc</t>
-  </si>
-  <si>
-    <t>Phượt xuyên Việt</t>
-  </si>
-  <si>
-    <t>Đi Thái Lan</t>
-  </si>
-  <si>
-    <t>Đi Nhật Bản</t>
-  </si>
-  <si>
     <t>Côn Đảo</t>
   </si>
   <si>
@@ -145,13 +79,194 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>Du lịch Phú Yên</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>TripImages</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>LocationName</t>
+  </si>
+  <si>
+    <t>Phú Yên</t>
+  </si>
+  <si>
+    <t>UsersPerTrip</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Thuê khách sạn</t>
+  </si>
+  <si>
+    <t>Ăn uống</t>
+  </si>
+  <si>
+    <t>Vé xe</t>
+  </si>
+  <si>
+    <t>Thuê xe máy</t>
+  </si>
+  <si>
+    <t>Bè nổi</t>
+  </si>
+  <si>
+    <t>Thuê cano</t>
+  </si>
+  <si>
+    <t>Đồ cắm trại</t>
+  </si>
+  <si>
+    <t>Mộc Châu - Tà Xùa</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Thanh Sơn</t>
+  </si>
+  <si>
+    <t>Phù Yên</t>
+  </si>
+  <si>
+    <t>Bắc Yên</t>
+  </si>
+  <si>
+    <t>Tà Xùa</t>
+  </si>
+  <si>
+    <t>Thuê homestay</t>
+  </si>
+  <si>
+    <t>Cơm trưa</t>
+  </si>
+  <si>
+    <t>Cơm tối</t>
+  </si>
+  <si>
+    <t>Bữa sáng</t>
+  </si>
+  <si>
+    <t>Bia</t>
+  </si>
+  <si>
+    <t>Đổ xăng</t>
+  </si>
+  <si>
+    <t>Nước ngọt</t>
+  </si>
+  <si>
+    <t>Thuê lều</t>
+  </si>
+  <si>
+    <t>Kem đánh răng</t>
+  </si>
+  <si>
+    <t>Dầu gội đầu</t>
+  </si>
+  <si>
+    <t>Đồ nướng</t>
+  </si>
+  <si>
+    <t>Vé máy bay</t>
+  </si>
+  <si>
+    <t>Hải sản</t>
+  </si>
+  <si>
+    <t>Tham quan</t>
+  </si>
+  <si>
+    <t>Mùa thu ở Trung Quốc</t>
+  </si>
+  <si>
+    <t>Bắc Kinh</t>
+  </si>
+  <si>
+    <t>Cam Túc</t>
+  </si>
+  <si>
+    <t>Tây An</t>
+  </si>
+  <si>
+    <t>Thành Đô</t>
+  </si>
+  <si>
+    <t>Tour Tử Cấm Thành, Gubei</t>
+  </si>
+  <si>
+    <t>Vạn Lý Trường Thành</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Lạc Sơn Đại Phật</t>
+  </si>
+  <si>
+    <t>Vé máy bay khứ hồi</t>
+  </si>
+  <si>
+    <t>Lăng Mộ Tần Thuỷ Hoàng</t>
+  </si>
+  <si>
+    <t>Mẫu Sơn - Lạng Sơn</t>
+  </si>
+  <si>
+    <t>Mẫu Sơn</t>
+  </si>
+  <si>
+    <t>Núi Phặt Chỉ</t>
+  </si>
+  <si>
+    <t>Suối Long Đầu</t>
+  </si>
+  <si>
+    <t>Bản người Dao</t>
+  </si>
+  <si>
+    <t>Lợn sữa quay</t>
+  </si>
+  <si>
+    <t>Gà nướng mật ong</t>
+  </si>
+  <si>
+    <t>Cá hồi Mẫu Sơn</t>
+  </si>
+  <si>
+    <t>Rượu Mẫu Sơn</t>
+  </si>
+  <si>
+    <t>Đổ Xăng</t>
+  </si>
+  <si>
+    <t>Ăn sáng</t>
+  </si>
+  <si>
+    <t>Ăn trưa</t>
+  </si>
+  <si>
+    <t>Ăn tối</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$₫-42A]"/>
+    <numFmt numFmtId="165" formatCode="###0&quot;.jpg&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,18 +275,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,36 +343,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -564,318 +695,1349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55C58C7-1C8B-418C-B3B5-1E060750C1B3}">
-  <dimension ref="D3:N24"/>
+  <dimension ref="D3:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.7265625" style="3"/>
+    <col min="4" max="4" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="3"/>
+    <col min="13" max="14" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="3"/>
+    <col min="18" max="19" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1700000</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="J6" s="8">
+        <v>2</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="10">
+        <v>800000</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1</v>
+      </c>
+      <c r="S6" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="J7" s="8">
+        <v>3</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>2</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="10">
+        <v>300000</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>2</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="10">
+        <v>1200000</v>
+      </c>
+      <c r="R8" s="11">
+        <v>2</v>
+      </c>
+      <c r="S8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D9" s="8">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
+        <v>3</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="10">
+        <v>450000</v>
+      </c>
+      <c r="R9" s="11">
+        <v>2</v>
+      </c>
+      <c r="S9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>3</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="10">
+        <f>280000*4</f>
+        <v>1120000</v>
+      </c>
+      <c r="R10" s="11">
+        <v>2</v>
+      </c>
+      <c r="S10" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
+        <v>3</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1300000</v>
+      </c>
+      <c r="R11" s="11">
+        <v>2</v>
+      </c>
+      <c r="S11" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="M12" s="8">
+        <v>2</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="10">
+        <v>3500000</v>
+      </c>
+      <c r="R12" s="11">
+        <v>2</v>
+      </c>
+      <c r="S12" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="M13" s="8">
+        <v>2</v>
+      </c>
+      <c r="N13" s="8">
+        <v>2</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="10">
+        <v>750000</v>
+      </c>
+      <c r="R13" s="8">
+        <v>3</v>
+      </c>
+      <c r="S13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="M14" s="8">
+        <v>2</v>
+      </c>
+      <c r="N14" s="8">
+        <v>2</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="10">
+        <v>200000</v>
+      </c>
+      <c r="R14" s="8">
+        <v>3</v>
+      </c>
+      <c r="S14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="M15" s="8">
+        <v>2</v>
+      </c>
+      <c r="N15" s="11">
+        <v>3</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="13">
+        <v>75000</v>
+      </c>
+      <c r="R15" s="8">
+        <v>4</v>
+      </c>
+      <c r="S15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="M16" s="8">
+        <v>2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>3</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="13">
+        <v>60000</v>
+      </c>
+      <c r="R16" s="8">
+        <v>4</v>
+      </c>
+      <c r="S16" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="M17" s="8">
+        <v>2</v>
+      </c>
+      <c r="N17" s="8">
+        <v>3</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="10">
+        <v>800000</v>
+      </c>
+      <c r="R17" s="8">
+        <v>4</v>
+      </c>
+      <c r="S17" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="K3" s="9" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="M18" s="8">
+        <v>2</v>
+      </c>
+      <c r="N18" s="8">
+        <v>3</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="10">
+        <v>100000</v>
+      </c>
+      <c r="R18" s="8">
+        <v>5</v>
+      </c>
+      <c r="S18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="M19" s="8">
+        <v>2</v>
+      </c>
+      <c r="N19" s="8">
+        <v>4</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="10">
+        <v>650000</v>
+      </c>
+      <c r="R19" s="8">
+        <v>5</v>
+      </c>
+      <c r="S19" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="M20" s="8">
+        <v>2</v>
+      </c>
+      <c r="N20" s="11">
+        <v>5</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="13">
+        <v>200000</v>
+      </c>
+      <c r="R20" s="8">
+        <v>5</v>
+      </c>
+      <c r="S20" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="M21" s="8">
+        <v>2</v>
+      </c>
+      <c r="N21" s="8">
+        <v>5</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="10">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18">
+        <v>7</v>
+      </c>
+      <c r="G22" s="8">
+        <v>3</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="M22" s="8">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8">
+        <v>5</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="13">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="4:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="G23" s="8">
+        <v>4</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="M23" s="8">
+        <v>3</v>
+      </c>
+      <c r="N23" s="8">
+        <v>1</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="13">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="M24" s="8">
+        <v>3</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="13">
+        <f>2*(20000+40000+20000+60000+100000)</f>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>10</v>
+      </c>
+      <c r="G25" s="8">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="8">
+        <v>3</v>
+      </c>
+      <c r="N25" s="8">
+        <v>1</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="13">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D26" s="11">
+        <v>2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>4</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="8">
+        <v>3</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="13">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D27" s="11">
+        <v>2</v>
+      </c>
+      <c r="E27" s="18">
+        <v>2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>5</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="8">
+        <v>3</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="13">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D28" s="11">
+        <v>2</v>
+      </c>
+      <c r="E28" s="18">
+        <v>3</v>
+      </c>
+      <c r="G28" s="8">
+        <v>5</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="8">
+        <v>3</v>
+      </c>
+      <c r="N28" s="8">
+        <v>1</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="13">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
+      <c r="E29" s="18">
+        <v>4</v>
+      </c>
+      <c r="G29" s="8">
+        <v>5</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="8">
+        <v>3</v>
+      </c>
+      <c r="N29" s="8">
+        <v>2</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D30" s="8">
+        <v>3</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8">
+        <v>5</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="8">
+        <v>3</v>
+      </c>
+      <c r="N30" s="8">
+        <v>2</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="13">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+      <c r="E31" s="18">
+        <v>2</v>
+      </c>
+      <c r="M31" s="8">
+        <v>3</v>
+      </c>
+      <c r="N31" s="8">
+        <v>2</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P31" s="13">
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D32" s="8">
+        <v>3</v>
+      </c>
+      <c r="E32" s="18">
+        <v>3</v>
+      </c>
+      <c r="M32" s="8">
+        <v>4</v>
+      </c>
+      <c r="N32" s="8">
+        <v>1</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" s="13">
+        <f>8982000*3</f>
+        <v>26946000</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D33" s="8">
+        <v>3</v>
+      </c>
+      <c r="E33" s="18">
+        <v>4</v>
+      </c>
+      <c r="M33" s="8">
+        <v>4</v>
+      </c>
+      <c r="N33" s="8">
+        <v>4</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" s="13">
+        <f>1108000*3</f>
+        <v>3324000</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D34" s="8">
+        <v>3</v>
+      </c>
+      <c r="E34" s="18">
+        <v>5</v>
+      </c>
+      <c r="M34" s="8">
+        <v>4</v>
+      </c>
+      <c r="N34" s="8">
+        <v>4</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" s="13">
+        <f>650000*3</f>
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D35" s="8">
+        <v>3</v>
+      </c>
+      <c r="E35" s="18">
+        <v>6</v>
+      </c>
+      <c r="M35" s="8">
+        <v>4</v>
+      </c>
+      <c r="N35" s="8">
+        <v>4</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P35" s="13">
+        <f>300000*3</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D36" s="8">
+        <v>3</v>
+      </c>
+      <c r="E36" s="18">
         <v>7</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="4:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="M36" s="8">
+        <v>4</v>
+      </c>
+      <c r="N36" s="8">
+        <v>4</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" s="13">
+        <f>282000*3</f>
+        <v>846000</v>
+      </c>
+    </row>
+    <row r="37" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D37" s="8">
+        <v>3</v>
+      </c>
+      <c r="E37" s="18">
+        <v>8</v>
+      </c>
+      <c r="M37" s="8">
+        <v>4</v>
+      </c>
+      <c r="N37" s="8">
+        <v>5</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" s="13">
+        <v>1415000</v>
+      </c>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D38" s="8">
+        <v>3</v>
+      </c>
+      <c r="E38" s="18">
+        <v>9</v>
+      </c>
+      <c r="M38" s="8">
+        <v>4</v>
+      </c>
+      <c r="N38" s="8">
+        <v>5</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" s="13">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D39" s="8">
+        <v>3</v>
+      </c>
+      <c r="E39" s="18">
+        <v>10</v>
+      </c>
+      <c r="M39" s="8">
+        <v>4</v>
+      </c>
+      <c r="N39" s="8">
+        <v>5</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" s="13">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D40" s="8">
+        <v>4</v>
+      </c>
+      <c r="E40" s="18">
+        <v>1</v>
+      </c>
+      <c r="M40" s="8">
+        <v>5</v>
+      </c>
+      <c r="N40" s="8">
+        <v>3</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D41" s="8">
+        <v>4</v>
+      </c>
+      <c r="E41" s="18">
+        <v>2</v>
+      </c>
+      <c r="M41" s="8">
+        <v>5</v>
+      </c>
+      <c r="N41" s="8">
+        <v>3</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="13">
+        <f>550000*2</f>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D42" s="8">
+        <v>4</v>
+      </c>
+      <c r="E42" s="18">
+        <v>3</v>
+      </c>
+      <c r="M42" s="8">
+        <v>5</v>
+      </c>
+      <c r="N42" s="8">
+        <v>3</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" s="13">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="43" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D43" s="8">
+        <v>4</v>
+      </c>
+      <c r="E43" s="18">
+        <v>4</v>
+      </c>
+      <c r="M43" s="8">
+        <v>5</v>
+      </c>
+      <c r="N43" s="8">
+        <v>3</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" s="13">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="44" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D44" s="8">
+        <v>4</v>
+      </c>
+      <c r="E44" s="18">
+        <v>5</v>
+      </c>
+      <c r="M44" s="8">
+        <v>5</v>
+      </c>
+      <c r="N44" s="8">
+        <v>4</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" s="13">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D45" s="8">
+        <v>5</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1</v>
+      </c>
+      <c r="M45" s="8">
+        <v>5</v>
+      </c>
+      <c r="N45" s="8">
+        <v>4</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" s="13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D46" s="8">
+        <v>5</v>
+      </c>
+      <c r="E46" s="18">
+        <v>2</v>
+      </c>
+      <c r="M46" s="8">
+        <v>5</v>
+      </c>
+      <c r="N46" s="8">
+        <v>4</v>
+      </c>
+      <c r="O46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="4:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="P46" s="13">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D47" s="8">
+        <v>5</v>
+      </c>
+      <c r="E47" s="18">
+        <v>3</v>
+      </c>
+      <c r="M47" s="8">
+        <v>5</v>
+      </c>
+      <c r="N47" s="8">
+        <v>5</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" s="13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D48" s="8">
+        <v>5</v>
+      </c>
+      <c r="E48" s="18">
+        <v>4</v>
+      </c>
+      <c r="M48" s="8">
+        <v>5</v>
+      </c>
+      <c r="N48" s="8">
+        <v>5</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" s="13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D49" s="8">
+        <v>5</v>
+      </c>
+      <c r="E49" s="18">
+        <v>5</v>
+      </c>
+      <c r="M49" s="8">
+        <v>5</v>
+      </c>
+      <c r="N49" s="8">
+        <v>5</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" s="13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D50" s="8">
+        <v>5</v>
+      </c>
+      <c r="E50" s="18">
         <v>6</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="M50" s="8">
+        <v>5</v>
+      </c>
+      <c r="N50" s="8">
+        <v>5</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" s="13">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D51" s="8">
+        <v>5</v>
+      </c>
+      <c r="E51" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D52" s="8">
+        <v>5</v>
+      </c>
+      <c r="E52" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D53" s="8">
+        <v>5</v>
+      </c>
+      <c r="E53" s="18">
         <v>9</v>
       </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="D9" s="3">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5</v>
-      </c>
-      <c r="I9" s="4" t="s">
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D54" s="8">
+        <v>5</v>
+      </c>
+      <c r="E54" s="18">
         <v>10</v>
       </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="D10" s="3">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>6</v>
-      </c>
-      <c r="I10" s="4" t="s">
+    </row>
+    <row r="55" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D55" s="8">
+        <v>5</v>
+      </c>
+      <c r="E55" s="18">
         <v>11</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="D11" s="7">
-        <v>7</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>7</v>
-      </c>
-      <c r="I11" s="4" t="s">
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D56" s="8">
+        <v>5</v>
+      </c>
+      <c r="E56" s="18">
         <v>12</v>
       </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="H12" s="3">
-        <v>8</v>
-      </c>
-      <c r="I12" s="4" t="s">
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D57" s="8">
+        <v>5</v>
+      </c>
+      <c r="E57" s="18">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="4:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="H13" s="3">
-        <v>9</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="H14" s="3">
-        <v>10</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="H15" s="3">
-        <v>11</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="H16" s="3">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="H17" s="3">
-        <v>13</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="H18" s="3">
-        <v>14</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="H19" s="3">
-        <v>15</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="H20" s="3">
-        <v>16</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="H21" s="3">
-        <v>17</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="H22" s="3">
-        <v>18</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="H23" s="3">
-        <v>19</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="H24" s="3">
-        <v>20</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
